--- a/Physics/IA2 Data.xlsx
+++ b/Physics/IA2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\isc\Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E4AA9-B435-44E8-8B72-4AF818E2FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37645978-7210-4A5D-A201-AB1DB5ECFF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Trial 1</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Trial 1 Average Period</t>
+  </si>
+  <si>
+    <t>Trial 2 Average Period</t>
+  </si>
+  <si>
+    <t>Trial 3 Average Period</t>
+  </si>
+  <si>
+    <t>Trial 4 Average Period</t>
+  </si>
+  <si>
+    <t>Trial 5 Average Period</t>
   </si>
 </sst>
 </file>
@@ -152,6 +167,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Average period Time graphed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> against pendulum mass</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -240,6 +285,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5775733670999074E-2"/>
+                  <c:y val="0.24129940730702432"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -270,6 +321,73 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$R$2:$R$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.1999999999999974E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999971E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0999999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1000000000000016E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3999999999999989E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$R$2:$R$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.1999999999999974E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999971E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0999999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1000000000000016E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3999999999999989E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -277,26 +395,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:f>Sheet1!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -307,7 +425,7 @@
                   <c:v>1.0475999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0424</c:v>
+                  <c:v>1.0424000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0384</c:v>
@@ -357,6 +475,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Mass (Kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -402,6 +575,7 @@
         <c:axId val="14955375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,6 +593,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>TIme (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1399,18 +1628,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1418,7 +1644,7 @@
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1441,39 +1667,54 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
         <v>5.22</v>
@@ -1495,48 +1736,68 @@
         <v>5.2940000000000005</v>
       </c>
       <c r="H2">
-        <f>G2/5</f>
+        <f>B2/5</f>
+        <v>1.044</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:L6" si="0">C2/5</f>
+        <v>1.08</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>1.038</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(H2:L2)</f>
         <v>1.0588000000000002</v>
       </c>
-      <c r="I2">
+      <c r="N2">
         <v>1.099</v>
       </c>
-      <c r="J2">
-        <f>MAX(B2:H2)</f>
+      <c r="O2">
+        <f>MAX(B2:M2)</f>
         <v>5.41</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <f>MIN(B2:G2)</f>
         <v>5.19</v>
       </c>
-      <c r="L2">
-        <f>J2-K2</f>
+      <c r="Q2">
+        <f>O2-P2</f>
         <v>0.21999999999999975</v>
       </c>
-      <c r="M2">
-        <f>L2/2</f>
-        <v>0.10999999999999988</v>
-      </c>
-      <c r="N2">
-        <f>M2/H2*100</f>
-        <v>10.389119758216836</v>
-      </c>
-      <c r="O2">
-        <f>I2-H2</f>
+      <c r="R2">
+        <f>Q2/10</f>
+        <v>2.1999999999999974E-2</v>
+      </c>
+      <c r="S2">
+        <f>R2/M2*100</f>
+        <v>2.0778239516433672</v>
+      </c>
+      <c r="T2">
+        <f>N2-M2</f>
         <v>4.0199999999999791E-2</v>
       </c>
-      <c r="P2">
-        <f>O2/I2*100</f>
+      <c r="U2">
+        <f>T2/N2*100</f>
         <v>3.6578707916287345</v>
       </c>
-      <c r="Q2">
+      <c r="V2">
         <f>STDEV(B2:F2)</f>
         <v>0.10358571330062856</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
         <v>5.16</v>
@@ -1558,48 +1819,68 @@
         <v>5.2379999999999995</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="0">G3/5</f>
+        <f t="shared" ref="H3:H6" si="1">B3/5</f>
+        <v>1.032</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1.044</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1.032</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.0619999999999998</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="2">AVERAGE(H3:L3)</f>
         <v>1.0475999999999999</v>
       </c>
-      <c r="I3">
+      <c r="N3">
         <v>1.099</v>
       </c>
-      <c r="J3">
-        <f>MAX(B3:H3)</f>
+      <c r="O3">
+        <f>MAX(B3:M3)</f>
         <v>5.34</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <f>MIN(B3:G3)</f>
         <v>5.16</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L6" si="1">J3-K3</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q6" si="3">O3-P3</f>
         <v>0.17999999999999972</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M6" si="2">L3/2</f>
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N6" si="3">M3/H3*100</f>
-        <v>8.5910652920962072</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O6" si="4">I3-H3</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R6" si="4">Q3/10</f>
+        <v>1.7999999999999971E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S6" si="5">R3/M3*100</f>
+        <v>1.7182130584192414</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="6">N3-M3</f>
         <v>5.1400000000000112E-2</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P6" si="5">O3/I3*100</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U6" si="7">T3/N3*100</f>
         <v>4.6769790718835402</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q6" si="6">STDEV(B3:F3)</f>
+      <c r="V3">
+        <f>STDEV(B3:F3)</f>
         <v>8.3785440262613475E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="B4">
         <v>5.13</v>
@@ -1621,48 +1902,68 @@
         <v>5.2119999999999997</v>
       </c>
       <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.026</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
-        <v>1.0424</v>
-      </c>
-      <c r="I4">
+        <v>1.036</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.026</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.056</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.0424000000000002</v>
+      </c>
+      <c r="N4">
         <v>1.099</v>
       </c>
-      <c r="J4">
-        <f>MAX(B4:H4)</f>
+      <c r="O4">
+        <f>MAX(B4:M4)</f>
         <v>5.34</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <f>MIN(B4:G4)</f>
         <v>5.13</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
+      <c r="Q4">
+        <f t="shared" si="3"/>
         <v>0.20999999999999996</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>0.10499999999999998</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>10.072908672294703</v>
-      </c>
-      <c r="O4">
+      <c r="R4">
         <f t="shared" si="4"/>
-        <v>5.6599999999999984E-2</v>
-      </c>
-      <c r="P4">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="5"/>
-        <v>5.1501364877161038</v>
-      </c>
-      <c r="Q4">
+        <v>2.0145817344589401</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="6"/>
+        <v>5.6599999999999762E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="7"/>
+        <v>5.1501364877160842</v>
+      </c>
+      <c r="V4">
+        <f>STDEV(B4:F4)</f>
         <v>9.4180677423768899E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>400</v>
+        <v>0.4</v>
       </c>
       <c r="B5">
         <v>5.22</v>
@@ -1684,48 +1985,68 @@
         <v>5.1920000000000002</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.044</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
+        <v>1.012</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.0939999999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.018</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.024</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
         <v>1.0384</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>1.099</v>
       </c>
-      <c r="J5">
-        <f>MAX(B5:H5)</f>
+      <c r="O5">
+        <f>MAX(B5:M5)</f>
         <v>5.47</v>
       </c>
-      <c r="K5">
+      <c r="P5">
         <f>MIN(B5:G5)</f>
         <v>5.0599999999999996</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
+      <c r="Q5">
+        <f t="shared" si="3"/>
         <v>0.41000000000000014</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>0.20500000000000007</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>19.741910631741145</v>
-      </c>
-      <c r="O5">
+      <c r="R5">
         <f t="shared" si="4"/>
+        <v>4.1000000000000016E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>3.9483821263482293</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
         <v>6.0599999999999987E-2</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
+      <c r="U5">
+        <f t="shared" si="7"/>
         <v>5.5141037306642389</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="6"/>
+      <c r="V5">
+        <f>STDEV(B5:F5)</f>
         <v>0.16664333169977127</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
         <v>4.9400000000000004</v>
@@ -1747,42 +2068,62 @@
         <v>5.1420000000000003</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.9880000000000001</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
+        <v>1.056</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.032</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.042</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.024</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
         <v>1.0284</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>1.099</v>
       </c>
-      <c r="J6">
-        <f>MAX(B6:H6)</f>
+      <c r="O6">
+        <f>MAX(B6:M6)</f>
         <v>5.28</v>
       </c>
-      <c r="K6">
+      <c r="P6">
         <f>MIN(B6:G6)</f>
         <v>4.9400000000000004</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
+      <c r="Q6">
+        <f t="shared" si="3"/>
         <v>0.33999999999999986</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>0.16999999999999993</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>16.530532866588871</v>
-      </c>
-      <c r="O6">
+      <c r="R6">
         <f t="shared" si="4"/>
+        <v>3.3999999999999989E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>3.3061065733177744</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="5"/>
+      <c r="U6">
+        <f t="shared" si="7"/>
         <v>6.4240218380345766</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="6"/>
+      <c r="V6">
+        <f>STDEV(B6:F6)</f>
         <v>0.1277497553813704</v>
       </c>
     </row>

--- a/Physics/IA2 Data.xlsx
+++ b/Physics/IA2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\isc\Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37645978-7210-4A5D-A201-AB1DB5ECFF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90141F0C-D18D-460E-B540-105E89209382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,6 +320,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1630,18 +1644,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">

--- a/Physics/IA2 Data.xlsx
+++ b/Physics/IA2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\isc\Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90141F0C-D18D-460E-B540-105E89209382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C64A89-DD41-496D-8479-C8135B2B1013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,48 +342,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$R$2:$R$6</c:f>
+                <c:f>Sheet1!$V$2:$V$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.1999999999999974E-2</c:v>
+                    <c:v>2.0717142660125715E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7999999999999971E-2</c:v>
+                    <c:v>1.6757088052522698E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0999999999999998E-2</c:v>
+                    <c:v>1.8836135484753783E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.1000000000000016E-2</c:v>
+                    <c:v>3.3328666339954197E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.3999999999999989E-2</c:v>
+                    <c:v>2.5549951076274075E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$R$2:$R$6</c:f>
+                <c:f>Sheet1!$V$2:$V$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.1999999999999974E-2</c:v>
+                    <c:v>2.0717142660125715E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7999999999999971E-2</c:v>
+                    <c:v>1.6757088052522698E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.0999999999999998E-2</c:v>
+                    <c:v>1.8836135484753783E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.1000000000000016E-2</c:v>
+                    <c:v>3.3328666339954197E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.3999999999999989E-2</c:v>
+                    <c:v>2.5549951076274075E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -589,7 +589,6 @@
         <c:axId val="14955375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -628,7 +627,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>TIme (s)</a:t>
+                  <a:t>Period (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1309,13 +1308,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>771524</xdr:colOff>
+      <xdr:colOff>771523</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1028699</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -1644,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1799,8 +1798,8 @@
         <v>2.1999999999999974E-2</v>
       </c>
       <c r="S2">
-        <f>R2/M2*100</f>
-        <v>2.0778239516433672</v>
+        <f>V2/M2*100</f>
+        <v>1.9566625104009927</v>
       </c>
       <c r="T2">
         <f>N2-M2</f>
@@ -1811,8 +1810,8 @@
         <v>3.6578707916287345</v>
       </c>
       <c r="V2">
-        <f>STDEV(B2:F2)</f>
-        <v>0.10358571330062856</v>
+        <f>STDEV(H2:L2)</f>
+        <v>2.0717142660125715E-2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1882,8 +1881,8 @@
         <v>1.7999999999999971E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S6" si="5">R3/M3*100</f>
-        <v>1.7182130584192414</v>
+        <f t="shared" ref="S3:S6" si="5">V3/M3*100</f>
+        <v>1.5995693062736447</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T6" si="6">N3-M3</f>
@@ -1894,8 +1893,8 @@
         <v>4.6769790718835402</v>
       </c>
       <c r="V3">
-        <f>STDEV(B3:F3)</f>
-        <v>8.3785440262613475E-2</v>
+        <f t="shared" ref="V3:V6" si="8">STDEV(H3:L3)</f>
+        <v>1.6757088052522698E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1966,7 +1965,7 @@
       </c>
       <c r="S4">
         <f t="shared" si="5"/>
-        <v>2.0145817344589401</v>
+        <v>1.8069968807323273</v>
       </c>
       <c r="T4">
         <f t="shared" si="6"/>
@@ -1977,8 +1976,8 @@
         <v>5.1501364877160842</v>
       </c>
       <c r="V4">
-        <f>STDEV(B4:F4)</f>
-        <v>9.4180677423768899E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.8836135484753783E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -2049,7 +2048,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="5"/>
-        <v>3.9483821263482293</v>
+        <v>3.2096173285780241</v>
       </c>
       <c r="T5">
         <f t="shared" si="6"/>
@@ -2060,8 +2059,8 @@
         <v>5.5141037306642389</v>
       </c>
       <c r="V5">
-        <f>STDEV(B5:F5)</f>
-        <v>0.16664333169977127</v>
+        <f t="shared" si="8"/>
+        <v>3.3328666339954197E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -2132,7 +2131,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="5"/>
-        <v>3.3061065733177744</v>
+        <v>2.4844370941534497</v>
       </c>
       <c r="T6">
         <f t="shared" si="6"/>
@@ -2143,8 +2142,8 @@
         <v>6.4240218380345766</v>
       </c>
       <c r="V6">
-        <f>STDEV(B6:F6)</f>
-        <v>0.1277497553813704</v>
+        <f t="shared" si="8"/>
+        <v>2.5549951076274075E-2</v>
       </c>
     </row>
   </sheetData>
